--- a/в бланки заводов/Черкизово КИ/cherkizovo/my_lib/1C.xlsx
+++ b/в бланки заводов/Черкизово КИ/cherkizovo/my_lib/1C.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Тестирование\cherkizovo\my_lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Черкизово КИ\cherkizovo\my_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E0C128-0584-418F-9234-8AB8EF1D9FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EBCD39-EFA2-47F3-BBF0-65B3E835C959}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>ВАР АРОМАТНАЯ ПО-Ч ЦО ЗА 1.6КГ K3.2 ЧЕРКИЗОВО</t>
   </si>
@@ -166,6 +172,27 @@
   </si>
   <si>
     <t>ВАР АРОМАТНАЯ ПО-ЧЕРКИЗОВСКИ ЦО ЗА 1.6КГ (ТМ ЧЕРКИЗОВО) K3.2</t>
+  </si>
+  <si>
+    <t>СОС СЛИВ ПО-ЧЕРК ПМО ЗА 1.5КГ К6</t>
+  </si>
+  <si>
+    <t>ВК СЕРВЕЛАТ ЗЕРНИСТЫЙ СРЕЗ ВУ ШТ К1.8</t>
+  </si>
+  <si>
+    <t>СК СВИНАЯ ПО-ЧЕРКИЗОВ СРЕЗ ШТ0,225 К1,35</t>
+  </si>
+  <si>
+    <t>СК САЛЯМИ АСТОРИЯ СРЕЗ ФИБ ВУ ШТ 0.225КГ (ТМ ЧЕРКИЗОВО) K1.35</t>
+  </si>
+  <si>
+    <t>СОС СЛИВОЧНЫЕ ПО-ЧЕРКИЗОВСКИ ПМО ЗА ПАК 1.5КГ (ТМ ЧЕРКИЗОВО) K6</t>
+  </si>
+  <si>
+    <t>ВК СЕРВЕЛАТ ЗЕРНИСТЫЙ СРЕЗ ФИБ ВУ ШТ 0.3КГ (ТМ ЧЕРКИЗОВО) K1.8</t>
+  </si>
+  <si>
+    <t>СК СВИНАЯ ПО-ЧЕРКИЗОВСКИ СРЕЗ ФИБ ВУ ШТ 0.225КГ (ТМ ЧЕРКИЗОВО) K1.35</t>
   </si>
 </sst>
 </file>
@@ -484,11 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,6 +778,50 @@
         <v>45</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1030228855</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1030419435</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1030688634</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1030671534</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
